--- a/na-service/src/test/resources/func/parser/source/real/TheInsider.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/TheInsider.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>page</t>
   </si>
@@ -52,13 +52,16 @@
     <t>ASIS</t>
   </si>
   <si>
-    <t>G2iT9:EQUALS</t>
+    <t>_3ObqY:STARTS</t>
   </si>
   <si>
-    <t>_1zLBQ:EQUALS</t>
+    <t>h3:HTML_TAG</t>
   </si>
   <si>
-    <t>xxhfs _3ppYJ:EQUALS</t>
+    <t>a:HTML_TAG</t>
+  </si>
+  <si>
+    <t>h5:HTML_TAG</t>
   </si>
   <si>
     <t>Коррупция</t>
@@ -508,12 +511,14 @@
       <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="3"/>
@@ -536,10 +541,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -580,12 +585,14 @@
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="3"/>
@@ -608,13 +615,13 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
@@ -651,12 +658,14 @@
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="3"/>
@@ -679,13 +688,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
@@ -723,12 +732,14 @@
       <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
@@ -751,13 +762,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
@@ -795,12 +806,14 @@
       <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
@@ -823,13 +836,13 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>11</v>
@@ -867,12 +880,14 @@
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="3"/>
